--- a/data/trans_bre/P16A06-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A06-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_bre/P16A06-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A06-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,37</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,48</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,13</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>152,96%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>91,27%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>113,33%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0,0; 4,78</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-1,02; 9,3</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-2,1; 8,24</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-0,3; 9,79</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,81; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,29; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,25; 408,99</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,02</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,83</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,49</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,12%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>174,22%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>282,89%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>75,99%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,12; 1,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,24; 5,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,75; 9,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,4; 8,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,69; 188,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>43,55; 570,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>103,28; 606,43</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,64; 154,59</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,61</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,21</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,84</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>99,55%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>622,34%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>129,67%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>160,2%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,23; 3,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,94; 8,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,25; 4,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,98; 7,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,18; 291,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>293,95; 1450,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>35,69; 291,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>87,48; 281,23</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,65</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,96</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,61</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,45</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>197,3%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>121,59%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>190,91%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>70,29%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,49; 5,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,67; 5,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,39; 6,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,07; 6,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>43,01; 459,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,98; 316,27</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>64,42; 438,13</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,01; 164,99</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,78</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,87</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,72</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>94,05%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>119,1%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>185,43%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>93,1%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,97; 4,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,52; 5,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,41; 8,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,38; 8,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,27; 202,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>34,53; 247,62</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>80,58; 339,51</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>46,03; 163,96</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,24</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,87</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,21</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>110,03%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>206,99%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>183,47%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>99,58%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,39; 3,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,22; 5,19</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,83; 5,94</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,82; 6,48</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>59,81; 182,67</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>127,29; 316,8</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>122,72; 266,97</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>64,41; 135,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A06-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A06-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,37</t>
+          <t>3,08</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,48</t>
+          <t>6,1</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,13</t>
+          <t>5,59</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>34,73%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>152,96%</t>
+          <t>169,8%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>91,27%</t>
+          <t>247,07%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>113,33%</t>
+          <t>84,18%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,78</t>
+          <t>-0,83; 1,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 9,3</t>
+          <t>1,33; 5,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 8,24</t>
+          <t>3,55; 8,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 9,79</t>
+          <t>2,87; 8,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,85; 242,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-56,81; —</t>
+          <t>43,93; 447,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-63,29; —</t>
+          <t>102,32; 535,42</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-18,25; 408,99</t>
+          <t>31,1; 152,98</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,02</t>
+          <t>6,61</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,83</t>
+          <t>3,21</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,49</t>
+          <t>6,55</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>14,12%</t>
+          <t>99,55%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>174,22%</t>
+          <t>622,34%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>282,89%</t>
+          <t>129,67%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>75,99%</t>
+          <t>221,37%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 1,67</t>
+          <t>0,23; 3,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,24; 5,06</t>
+          <t>4,94; 8,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,75; 9,52</t>
+          <t>1,25; 4,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,4; 8,5</t>
+          <t>4,62; 8,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-60,69; 188,38</t>
+          <t>2,18; 291,88</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>43,55; 570,71</t>
+          <t>293,95; 1450,56</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>103,28; 606,43</t>
+          <t>35,69; 291,78</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>25,64; 154,59</t>
+          <t>116,02; 542,47</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,65</t>
+          <t>3,65</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,61</t>
+          <t>2,96</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,21</t>
+          <t>4,61</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,84</t>
+          <t>2,37</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>99,55%</t>
+          <t>197,3%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>622,34%</t>
+          <t>121,59%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>129,67%</t>
+          <t>190,91%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>160,2%</t>
+          <t>50,08%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,23; 3,21</t>
+          <t>1,49; 5,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,94; 8,59</t>
+          <t>0,67; 5,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,25; 4,95</t>
+          <t>2,39; 6,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,98; 7,73</t>
+          <t>-1,6; 5,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,18; 291,88</t>
+          <t>43,01; 459,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>293,95; 1450,56</t>
+          <t>10,98; 316,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>35,69; 291,78</t>
+          <t>64,42; 438,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>87,48; 281,23</t>
+          <t>-23,31; 138,0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,65</t>
+          <t>2,78</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,96</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,61</t>
+          <t>5,87</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,45</t>
+          <t>4,84</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>197,3%</t>
+          <t>94,05%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>121,59%</t>
+          <t>119,1%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>190,91%</t>
+          <t>185,43%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>70,29%</t>
+          <t>78,67%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,49; 5,5</t>
+          <t>0,97; 4,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,67; 5,08</t>
+          <t>1,52; 5,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,39; 6,68</t>
+          <t>3,41; 8,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,07; 6,38</t>
+          <t>2,14; 7,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>43,01; 459,29</t>
+          <t>22,27; 202,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,98; 316,27</t>
+          <t>34,53; 247,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>64,42; 438,13</t>
+          <t>80,58; 339,51</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,01; 164,99</t>
+          <t>30,9; 142,9</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,78</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,54</t>
+          <t>4,24</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,87</t>
+          <t>4,87</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,72</t>
+          <t>4,99</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>94,05%</t>
+          <t>110,03%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>119,1%</t>
+          <t>206,99%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>185,43%</t>
+          <t>183,47%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>93,1%</t>
+          <t>102,84%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,97; 4,62</t>
+          <t>1,39; 3,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,52; 5,37</t>
+          <t>3,22; 5,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,41; 8,02</t>
+          <t>3,83; 5,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,38; 8,27</t>
+          <t>3,21; 6,46</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>22,27; 202,01</t>
+          <t>59,81; 182,67</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>34,53; 247,62</t>
+          <t>127,29; 316,8</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>80,58; 339,51</t>
+          <t>122,72; 266,97</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>46,03; 163,96</t>
+          <t>61,31; 154,72</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>2,18</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>4,24</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>4,87</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>5,21</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>110,03%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>206,99%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>183,47%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>99,58%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>1,39; 3,04</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>3,22; 5,19</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>3,83; 5,94</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>3,82; 6,48</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>59,81; 182,67</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>127,29; 316,8</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>122,72; 266,97</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>64,41; 135,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P16A06-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A06-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 1,59</t>
+          <t>-0,78; 1,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,33; 5,15</t>
+          <t>1,26; 5,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,55; 8,62</t>
+          <t>3,94; 8,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,87; 8,17</t>
+          <t>2,98; 8,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-48,85; 242,83</t>
+          <t>-44,43; 256,08</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>43,93; 447,73</t>
+          <t>41,03; 466,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>102,32; 535,42</t>
+          <t>104,7; 530,43</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>31,1; 152,98</t>
+          <t>34,8; 155,76</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,23; 3,21</t>
+          <t>0,17; 3,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,94; 8,59</t>
+          <t>4,83; 8,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,25; 4,95</t>
+          <t>1,53; 4,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,62; 8,73</t>
+          <t>4,66; 8,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,18; 291,88</t>
+          <t>1,73; 282,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>293,95; 1450,56</t>
+          <t>285,78; 1509,17</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>35,69; 291,78</t>
+          <t>48,27; 301,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>116,02; 542,47</t>
+          <t>117,29; 537,3</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,49; 5,5</t>
+          <t>1,84; 5,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,67; 5,08</t>
+          <t>0,68; 5,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,39; 6,68</t>
+          <t>2,36; 6,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 5,52</t>
+          <t>-1,84; 5,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>43,01; 459,29</t>
+          <t>60,51; 498,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,98; 316,27</t>
+          <t>10,32; 356,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>64,42; 438,13</t>
+          <t>67,88; 395,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-23,31; 138,0</t>
+          <t>-30,63; 129,89</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,97; 4,62</t>
+          <t>1,05; 4,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,52; 5,37</t>
+          <t>1,53; 5,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,41; 8,02</t>
+          <t>3,76; 8,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,14; 7,4</t>
+          <t>2,07; 7,47</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,27; 202,01</t>
+          <t>27,46; 201,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>34,53; 247,62</t>
+          <t>36,05; 270,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>80,58; 339,51</t>
+          <t>95,13; 350,6</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>30,9; 142,9</t>
+          <t>28,95; 150,2</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,39; 3,04</t>
+          <t>1,33; 3,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,22; 5,19</t>
+          <t>3,19; 5,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,83; 5,94</t>
+          <t>3,81; 5,95</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,21; 6,46</t>
+          <t>3,35; 6,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>59,81; 182,67</t>
+          <t>58,98; 192,36</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>127,29; 316,8</t>
+          <t>124,9; 305,31</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>122,72; 266,97</t>
+          <t>123,51; 268,22</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>61,31; 154,72</t>
+          <t>62,99; 158,24</t>
         </is>
       </c>
     </row>
